--- a/data/output/FV2410_FV2404/IFTSTA/21035.xlsx
+++ b/data/output/FV2410_FV2404/IFTSTA/21035.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="219">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="219">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -757,6 +757,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U88" totalsRowShown="0">
+  <autoFilter ref="A1:U88"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1046,7 +1076,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5405,5 +5438,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/IFTSTA/21035.xlsx
+++ b/data/output/FV2410_FV2404/IFTSTA/21035.xlsx
@@ -1455,7 +1455,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -4177,7 +4177,7 @@
         <v>214</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4327,7 +4327,7 @@
         <v>215</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -4551,7 +4551,7 @@
         <v>217</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -4775,7 +4775,7 @@
         <v>218</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -4993,7 +4993,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5859,7 +5859,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N86" s="2"/>
